--- a/tests/testthat/Exemple_feuille_de_donnees_M1.xlsx
+++ b/tests/testthat/Exemple_feuille_de_donnees_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58E7BC-D805-4DDF-9DBC-E745FED240E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A980F-7315-4D92-B1AD-4D6618933147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11448,12 +11448,6 @@
       <c r="F196" t="s">
         <v>49</v>
       </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>5</v>
-      </c>
       <c r="I196">
         <v>100</v>
       </c>
@@ -13303,12 +13297,6 @@
       <c r="F231" t="s">
         <v>49</v>
       </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>5</v>
-      </c>
       <c r="I231">
         <v>100</v>
       </c>
@@ -14628,12 +14616,6 @@
       <c r="F256" t="s">
         <v>49</v>
       </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>5</v>
-      </c>
       <c r="I256">
         <v>100</v>
       </c>
@@ -14681,12 +14663,6 @@
       <c r="F257" t="s">
         <v>49</v>
       </c>
-      <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>5</v>
-      </c>
       <c r="I257">
         <v>100</v>
       </c>
@@ -16112,12 +16088,6 @@
       <c r="F284" t="s">
         <v>51</v>
       </c>
-      <c r="G284">
-        <v>5</v>
-      </c>
-      <c r="H284">
-        <v>5</v>
-      </c>
       <c r="I284">
         <v>100</v>
       </c>
@@ -16254,8 +16224,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W161" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W161">
-      <sortCondition ref="F1:F161"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W286">
+      <sortCondition ref="A1:A161"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testthat/Exemple_feuille_de_donnees_M1.xlsx
+++ b/tests/testthat/Exemple_feuille_de_donnees_M1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A980F-7315-4D92-B1AD-4D6618933147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2F1F95-BA3B-42F0-97F9-25BE70F897A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="52">
   <si>
     <r>
       <rPr>
@@ -388,9 +388,6 @@
   </si>
   <si>
     <t>Assistant/e de direction</t>
-  </si>
-  <si>
-    <t>Chef/fe de secteur, membre de la direction</t>
   </si>
   <si>
     <t>Réceptionniste</t>
@@ -1800,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14">
         <v>6</v>
@@ -2489,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27">
         <v>6</v>
@@ -2542,7 +2539,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G28">
         <v>3</v>
@@ -2648,7 +2645,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>7</v>
@@ -2860,7 +2857,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34">
         <v>6</v>
@@ -2913,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35">
         <v>6</v>
@@ -3125,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>7</v>
@@ -3337,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -3655,7 +3652,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3761,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -3814,7 +3811,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -4503,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>7</v>
@@ -5086,7 +5083,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>5</v>
@@ -5298,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80">
         <v>7</v>
@@ -5351,7 +5348,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>6</v>
@@ -5404,7 +5401,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G82">
         <v>4</v>
@@ -5669,7 +5666,7 @@
         <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -5775,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G89">
         <v>6</v>
@@ -5881,7 +5878,7 @@
         <v>8</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -5987,7 +5984,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G93">
         <v>5</v>
@@ -6040,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -6093,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -6199,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G97">
         <v>7</v>
@@ -6411,7 +6408,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -6517,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -6729,7 +6726,7 @@
         <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>7</v>
@@ -7524,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G122">
         <v>4</v>
@@ -7683,7 +7680,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -7789,7 +7786,7 @@
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -8107,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -8637,7 +8634,7 @@
         <v>6</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -8743,7 +8740,7 @@
         <v>6</v>
       </c>
       <c r="F145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G145">
         <v>6</v>
@@ -9114,7 +9111,7 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152">
         <v>4</v>
@@ -9856,7 +9853,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166">
         <v>7</v>
@@ -9962,7 +9959,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168">
         <v>7</v>
@@ -10068,7 +10065,7 @@
         <v>6</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G170">
         <v>6</v>
@@ -10280,7 +10277,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G174">
         <v>7</v>
@@ -10333,7 +10330,7 @@
         <v>6</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>4</v>
@@ -10492,7 +10489,7 @@
         <v>3</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G178">
         <v>4</v>
@@ -11128,7 +11125,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>7</v>
@@ -11446,7 +11443,7 @@
         <v>8</v>
       </c>
       <c r="F196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I196">
         <v>100</v>
@@ -11493,7 +11490,7 @@
         <v>8</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -11811,7 +11808,7 @@
         <v>6</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G203">
         <v>5</v>
@@ -12023,7 +12020,7 @@
         <v>6</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G207">
         <v>6</v>
@@ -12129,7 +12126,7 @@
         <v>5</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209">
         <v>4</v>
@@ -12288,7 +12285,7 @@
         <v>6</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>4</v>
@@ -12500,7 +12497,7 @@
         <v>8</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G216">
         <v>7</v>
@@ -12765,7 +12762,7 @@
         <v>5</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G221">
         <v>4</v>
@@ -12871,7 +12868,7 @@
         <v>6</v>
       </c>
       <c r="F223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G223">
         <v>6</v>
@@ -12924,7 +12921,7 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G224">
         <v>6</v>
@@ -13030,7 +13027,7 @@
         <v>8</v>
       </c>
       <c r="F226" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G226">
         <v>7</v>
@@ -13136,7 +13133,7 @@
         <v>6</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G228">
         <v>4</v>
@@ -13295,7 +13292,7 @@
         <v>8</v>
       </c>
       <c r="F231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231">
         <v>100</v>
@@ -13713,7 +13710,7 @@
         <v>6</v>
       </c>
       <c r="F239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G239">
         <v>4</v>
@@ -13766,7 +13763,7 @@
         <v>2</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -13819,7 +13816,7 @@
         <v>3</v>
       </c>
       <c r="F241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G241">
         <v>4</v>
@@ -13872,7 +13869,7 @@
         <v>6</v>
       </c>
       <c r="F242" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G242">
         <v>6</v>
@@ -14084,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G246">
         <v>3</v>
@@ -14137,7 +14134,7 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G247">
         <v>7</v>
@@ -14190,7 +14187,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G248">
         <v>4</v>
@@ -14455,7 +14452,7 @@
         <v>2</v>
       </c>
       <c r="F253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G253">
         <v>5</v>
@@ -14614,7 +14611,7 @@
         <v>8</v>
       </c>
       <c r="F256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I256">
         <v>100</v>
@@ -14661,7 +14658,7 @@
         <v>8</v>
       </c>
       <c r="F257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I257">
         <v>100</v>
@@ -15079,7 +15076,7 @@
         <v>6</v>
       </c>
       <c r="F265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G265">
         <v>5</v>
@@ -15132,7 +15129,7 @@
         <v>6</v>
       </c>
       <c r="F266" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G266">
         <v>6</v>
@@ -15238,7 +15235,7 @@
         <v>6</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G268">
         <v>4</v>
@@ -15450,7 +15447,7 @@
         <v>6</v>
       </c>
       <c r="F272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G272">
         <v>4</v>
@@ -15874,7 +15871,7 @@
         <v>6</v>
       </c>
       <c r="F280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G280">
         <v>6</v>
@@ -15980,7 +15977,7 @@
         <v>6</v>
       </c>
       <c r="F282" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G282">
         <v>6</v>
@@ -16086,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I284">
         <v>100</v>
@@ -16186,7 +16183,7 @@
         <v>6</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G286">
         <v>6</v>
